--- a/Files/Employees.xlsx
+++ b/Files/Employees.xlsx
@@ -5,17 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salih\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salih\IdeaProjects\gitProjects\SDET Batch 17\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D1069A-4E3D-49FA-ACF2-B965ED07B7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA593A72-C373-4EC0-B824-48EDF5D509E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -40,91 +53,91 @@
     <t>John</t>
   </si>
   <si>
-    <t xml:space="preserve">    Doe</t>
-  </si>
-  <si>
     <t>New York</t>
   </si>
   <si>
     <t>Jane</t>
   </si>
   <si>
-    <t xml:space="preserve">    Smith</t>
-  </si>
-  <si>
     <t>Los Angeles</t>
   </si>
   <si>
     <t>Alice</t>
   </si>
   <si>
-    <t xml:space="preserve">    Johnson</t>
-  </si>
-  <si>
     <t>Chicago</t>
   </si>
   <si>
     <t>Bob</t>
   </si>
   <si>
-    <t xml:space="preserve">        White</t>
-  </si>
-  <si>
     <t>Houston</t>
   </si>
   <si>
     <t>Eve</t>
   </si>
   <si>
-    <t xml:space="preserve">        Black</t>
-  </si>
-  <si>
     <t>Phoenix</t>
   </si>
   <si>
     <t>Tom</t>
   </si>
   <si>
-    <t xml:space="preserve">        Brown</t>
-  </si>
-  <si>
     <t>Philadelphia</t>
   </si>
   <si>
     <t>Lucy</t>
   </si>
   <si>
-    <t xml:space="preserve">    Green</t>
-  </si>
-  <si>
     <t>San Antonio</t>
   </si>
   <si>
     <t>Mike</t>
   </si>
   <si>
-    <t xml:space="preserve">    Wilson</t>
-  </si>
-  <si>
     <t>San Diego</t>
   </si>
   <si>
     <t>Lily</t>
   </si>
   <si>
-    <t xml:space="preserve">    Taylor</t>
-  </si>
-  <si>
     <t>Dallas</t>
   </si>
   <si>
     <t>James</t>
   </si>
   <si>
-    <t xml:space="preserve">    Lee</t>
-  </si>
-  <si>
     <t>San Jose</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Lee</t>
   </si>
 </sst>
 </file>
@@ -162,9 +175,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -663,7 +682,7 @@
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -671,7 +690,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -688,8 +707,8 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2">
         <v>25</v>
@@ -698,15 +717,15 @@
         <v>50000</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -715,15 +734,15 @@
         <v>60000</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C4">
         <v>28</v>
@@ -732,15 +751,15 @@
         <v>54000</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C5">
         <v>32</v>
@@ -749,15 +768,15 @@
         <v>62000</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C6">
         <v>29</v>
@@ -766,15 +785,15 @@
         <v>58000</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C7">
         <v>35</v>
@@ -783,15 +802,15 @@
         <v>67000</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C8">
         <v>27</v>
@@ -800,15 +819,15 @@
         <v>51000</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C9">
         <v>33</v>
@@ -817,15 +836,15 @@
         <v>64000</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C10">
         <v>26</v>
@@ -834,15 +853,15 @@
         <v>52000</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C11">
         <v>31</v>
@@ -851,8 +870,11 @@
         <v>61000</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Files/Employees.xlsx
+++ b/Files/Employees.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salih\IdeaProjects\gitProjects\SDET Batch 17\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA593A72-C373-4EC0-B824-48EDF5D509E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C989A6C5-FB78-411D-82B3-E45CED392242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EmpData" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -672,12 +672,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51327AC3-42F5-4B86-ACD7-67179A99545F}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
